--- a/DOC/教育/JUNIT入門.xlsx
+++ b/DOC/教育/JUNIT入門.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\教育\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76361E7F-F23D-46AA-995A-7836F830AB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6573F4B-052B-4D29-99FC-A0B9BBF23800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D03DB513-9D34-44F4-89A8-F2B92B0E3E16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D03DB513-9D34-44F4-89A8-F2B92B0E3E16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -283,10 +275,6 @@
   </si>
   <si>
     <t>④テストメソッドは、MockMvcから実行結果を受け取り、実行結果の妥当性を検証する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>@ContextConfiguration(classes = EmsApplication.class)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -377,12 +365,16 @@
     <t>←完全な Spring アプリケーションコンテキストが開始されますが、サーバーはありませんので、</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +413,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,40 +443,37 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,7 +582,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -884,446 +880,444 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420E60C7-C812-43E1-967F-0CDB3EA6B8A6}">
   <dimension ref="A2:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="10.75" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="15" max="15" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O17" s="1" t="s">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.45">
+      <c r="O17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O18" s="1" t="s">
+    <row r="18" spans="15:15" x14ac:dyDescent="0.45">
+      <c r="O18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O19" s="1" t="s">
+    <row r="19" spans="15:15" x14ac:dyDescent="0.45">
+      <c r="O19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O20" s="1" t="s">
+    <row r="20" spans="15:15" x14ac:dyDescent="0.45">
+      <c r="O20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="K36" s="9" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="K36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="K37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="K39" s="5"/>
+      <c r="P39" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="L53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" t="s">
         <v>75</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="K37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="K39" s="7"/>
-      <c r="P39" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="L44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="L45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="L46" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="L47" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="L53" s="1" t="s">
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="M64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="N68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="N69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="M84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="M85" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="M88" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X88" t="s">
         <v>83</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="1" t="s">
+    </row>
+    <row r="89" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="M89" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="1" t="s">
+    <row r="90" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="M90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="M91" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="M92" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="L93" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B62" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="M64" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D70" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C71" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C73" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C74" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C75" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C77" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B78" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="M83" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="M84" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="M85" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="M88" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="M89" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="X89" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="M90" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="X90" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="M91" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="X91" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="M92" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="L93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M93" s="1" t="s">
+      <c r="M93" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="11:24" x14ac:dyDescent="0.4">
-      <c r="K94" s="1" t="s">
+    <row r="94" spans="11:24" x14ac:dyDescent="0.45">
+      <c r="K94" t="s">
         <v>44</v>
       </c>
     </row>
